--- a/text_data.xlsx
+++ b/text_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanuszka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C72FD0B-BF68-4258-8A0A-669E1CE4CC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665370AF-CBF5-4C59-967C-46F47CA01BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B72244F9-F9BF-43A9-8F0E-CE454764DE61}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Czy chciałabyś być sławna? Z czego?</t>
   </si>
@@ -47,9 +47,6 @@
     <t>chciałabym, żeby moje dzieła były sławne.</t>
   </si>
   <si>
-    <t>ja mogłabym być sławna, ale wolałabym chyba nie być rozpoznawalna</t>
-  </si>
-  <si>
     <t>Czy kiedykolwiek przed rozmową telefoniczną odgrywasz na próbę to, co zamierzasz powiedzieć? Dlaczego?</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>jeśli wiem, że będą emocje, to też czasem odgrywam małą scenkę</t>
   </si>
   <si>
-    <t>chodzi wtedy głównie o to, że nie chcę się zaciąć z natłoku uczuć</t>
-  </si>
-  <si>
     <t>Co dla Ciebie byłoby doskonałym dniem?</t>
   </si>
   <si>
@@ -113,108 +107,18 @@
     <t>A7</t>
   </si>
   <si>
-    <t>Kiedy ostatnio zaśpiewałaś coś dla siebie? A dla kogoś innego?</t>
-  </si>
-  <si>
-    <t>dla siebie śpiewam bardzo często, praktycznie codziennie</t>
-  </si>
-  <si>
-    <t>właściwie to w każdej chwili, kiedy jestem sama i niczym się nie zajmuję</t>
-  </si>
-  <si>
-    <t>dla kogoś chyba nigdy się nie zdarzyło</t>
-  </si>
-  <si>
-    <t>chyba, że chciałam przypomnieć jakiś utwór i trzeba go było zanucić</t>
-  </si>
-  <si>
-    <t>ale w sumie myślę, że dla kogoś też bym chciała</t>
-  </si>
-  <si>
-    <t>Gdybyś mógł dożyć 90tki zachowując umysł albo ciało 30latka przez ostatnie 60 lat życia, co być wybrała?</t>
-  </si>
-  <si>
-    <t>zdecydowanie ciało</t>
-  </si>
-  <si>
-    <t>myślę, że nasz umysł ciągle się rozwija</t>
-  </si>
-  <si>
-    <t>więc gdyby tak zatrzymać umysł to byłoby tak, jakby 10latek został na etapie noworodka</t>
-  </si>
-  <si>
-    <t>Czy masz jakieś ukryte przeczucie co do tego, jak umrzesz?</t>
-  </si>
-  <si>
-    <t>chyba wierzę, że mam jakiś cel do wypełnienia na tym świecie</t>
-  </si>
-  <si>
-    <t>więc może umrę, jak go wypełnię</t>
-  </si>
-  <si>
-    <t>ale nie wiem, jak to się stanie</t>
-  </si>
-  <si>
-    <t>mam tylko nadzieję, że to będzie jakaś naprawdę epicka śmierć</t>
-  </si>
-  <si>
     <t>Za co w życiu odczuwasz największą wdzięczność?</t>
   </si>
   <si>
-    <t>za to, że nigdy nie trafiałam na złych ludzi, że nikt nie chciał mi zrobić krzywdy</t>
-  </si>
-  <si>
     <t xml:space="preserve"> i na pewno też za bezpieczeństwo, bo urodziłam się w takim kraju i rodzinie, która była bezpieczna</t>
   </si>
   <si>
-    <t>tzn, że jak np było słabo z pieniędzmi, to nie jechaliśmy na wakacje, a nie martwiliśmy się o kolejny miesiąc życia</t>
-  </si>
-  <si>
     <t>no i bardzo jestem wdzięczna za przyjaciół, za każdą spędzoną wspólnie chwilę</t>
   </si>
   <si>
     <t>i za bycie zdrową właściwie całe życie</t>
   </si>
   <si>
-    <t>Gdybyś mógł zmienić cokolwiek w tym, jak byłaś wychowana, co by to było?</t>
-  </si>
-  <si>
-    <t>trochę bałabym się coś zmieniać, chyba wyszło całkiem nieźle</t>
-  </si>
-  <si>
-    <t>no, może w sumie jedną rzecz</t>
-  </si>
-  <si>
-    <t>chciałabym być wychowana trochę mniej protekcjonalnie</t>
-  </si>
-  <si>
-    <t>Gdybyś jutro rano mogła obudzić się z dowolną cechą lub umiejętnością, co by to było?</t>
-  </si>
-  <si>
-    <t>no wiadomo, że latanie</t>
-  </si>
-  <si>
-    <t> a tak serio</t>
-  </si>
-  <si>
-    <t>chyba z umiejętnością gry na jakimś nowym instrumencie</t>
-  </si>
-  <si>
-    <t>albo ze znajomością całkiem obcego języka</t>
-  </si>
-  <si>
-    <t>bez różnicy, czy byłby to chiński czy arabski</t>
-  </si>
-  <si>
-    <t>Gdyby kryształowa kula mogła ci ujawnić prawdę o tobie, twoim życiu w przyszłości albo czymkolwiek innym, to co chciałabyś wiedzieć?</t>
-  </si>
-  <si>
-    <t>kusiłoby, ale chyba nie</t>
-  </si>
-  <si>
-    <t>zabawniej jest nie wiedzieć</t>
-  </si>
-  <si>
     <t>Czy jest coś, co od dawna marzysz, aby zrobić? Czemu jeszcze tego nie zrobiłaś?</t>
   </si>
   <si>
@@ -230,30 +134,12 @@
     <t>myślę, że nie zrobiłam tego przez wstyd i strach przed wystąpieniami publicznymi</t>
   </si>
   <si>
-    <t>Co jest największym osiągnięciem twojego życia?</t>
-  </si>
-  <si>
-    <t>to, że poznałam siebie samą i dzięki temu czuję się ze sobą dobrze</t>
-  </si>
-  <si>
-    <t>i może jeszcze to, że próbowałam życia na tyle, że teraz wiem, co jest dla mnie ważne i czym powinnam się zajmować</t>
-  </si>
-  <si>
-    <t>Co najbardziej cenisz sobie w przyjaźni?</t>
-  </si>
-  <si>
-    <t>akceptację, szczerość i wspólną twórczość</t>
-  </si>
-  <si>
     <t>Jakie jest twoje najcenniejsze wspomnienie?</t>
   </si>
   <si>
     <t>moje najcenniejsze wspomnienie to chyba dzieciństwo</t>
   </si>
   <si>
-    <t> jak byłam mała to największym moim problemem było to, że tyle się uśmiechałam, że jak działo się coś fajnego to nie byłam już w stanie uśmiechnąć się bardziej</t>
-  </si>
-  <si>
     <t> myślę, że ten okres czasu jest dla mnie najcenniejszy</t>
   </si>
   <si>
@@ -275,12 +161,6 @@
     <t> tak, pewnie przestałabym się przejmować takimi długofalowymi rzeczami</t>
   </si>
   <si>
-    <t>i bardziej skupiłabym się na tym, co teraz daje mi szczęście</t>
-  </si>
-  <si>
-    <t>spędzałabym więcej czasu z bliskimi, najwięcej, jak mogę</t>
-  </si>
-  <si>
     <t>przeczytałabym tych kilka odkładanych książek</t>
   </si>
   <si>
@@ -290,16 +170,37 @@
     <t>Co oznacza dla ciebie przyjaźń?</t>
   </si>
   <si>
-    <t>przyjaźń jest wtedy, kiedy mogę zadzwonić do kogoś o drugiej w nocy i powiedzieć, że wpakowałam się w jakąś głupią sytuację i potrzebuję ratunku</t>
-  </si>
-  <si>
     <t>to też długie rozmowy o życiu i wspieranie się nawzajem</t>
   </si>
   <si>
-    <t>ale też danie kopa w tyłek i powiedzenie, że masz się ogarnąć kiedy robisz coś żle</t>
-  </si>
-  <si>
-    <t>i to znanie się tak dobrze, że pamiętasz, czy ktoś słodzi kawę</t>
+    <t>i bardziej skupiłabym się na tym co teraz daje mi szczęście</t>
+  </si>
+  <si>
+    <t>spędzałabym więcej czasu z bliskimi, najwięcej jak mogę</t>
+  </si>
+  <si>
+    <t>to znaczy że jak np było słabo z pieniędzmi to nie jechaliśmy na wakacje, a nie martwiliśmy się o kolejny miesiąc życia</t>
+  </si>
+  <si>
+    <t> jak byłam mała to największym moim problemem było to, że tyle się uśmiechałam, że jak działo się coś fajnego tonie byłam już w stanie uśmiechnąć się bardziej</t>
+  </si>
+  <si>
+    <t>i to znanie się tak dobrze że pamiętasz czy ktoś słodzi kawę</t>
+  </si>
+  <si>
+    <t>przyjaźń jest wtedy, kiedy mogę zadzwonić do kogoś o drugiej w nocy i powiedzieć że wpakowałam się w jakąś głupią sytuację i potrzebuję ratunku</t>
+  </si>
+  <si>
+    <t>ale też danie kopa w tyłek i powiedzenie że masz się ogarnąć kiedy robisz coś żle</t>
+  </si>
+  <si>
+    <t>ja mogłabym być sławna, ale wolałabym chyba niebyć rozpoznawalna</t>
+  </si>
+  <si>
+    <t>chodzi wtedy głównie o to że nie chcę się zaciąć z natłoku uczuć</t>
+  </si>
+  <si>
+    <t>za to że nigdy nie trafiałam na złych ludzi, że nikt nie chciał mi zrobić krzywdy</t>
   </si>
 </sst>
 </file>
@@ -345,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -358,9 +259,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9462526-E3B8-41E0-9D52-01C6631A7DFD}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,28 +594,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -734,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -746,19 +644,19 @@
     </row>
     <row r="3" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -769,28 +667,28 @@
     </row>
     <row r="4" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -798,22 +696,22 @@
     </row>
     <row r="5" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -823,18 +721,20 @@
     </row>
     <row r="6" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -844,20 +744,18 @@
     </row>
     <row r="7" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -867,84 +765,77 @@
     </row>
     <row r="8" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -955,179 +846,17 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1136,20 +865,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="95291442-21c7-4ceb-8ce6-44f40cbe119a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="95291442-21c7-4ceb-8ce6-44f40cbe119a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1376,14 +1105,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11014F90-16FA-400A-B252-1E06AC431C2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53395A3E-9867-41D0-A557-0DCDB1AE0666}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1396,6 +1117,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11014F90-16FA-400A-B252-1E06AC431C2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
